--- a/future_employment/overzicht_setoren.xlsx
+++ b/future_employment/overzicht_setoren.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="16080" tabRatio="500"/>
+    <workbookView xWindow="1600" yWindow="0" windowWidth="26320" windowHeight="16080" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="860">
   <si>
     <t xml:space="preserve">    "Accountants and auditors", </t>
   </si>
@@ -2415,52 +2415,190 @@
     <t>Sectoren</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>O</t>
+    <t>gedrag, maatschappij</t>
+  </si>
+  <si>
+    <t>gezondheid, beweging</t>
+  </si>
+  <si>
+    <t>kunst, cultuur, geschiedenis</t>
+  </si>
+  <si>
+    <t>natuurwetenschappen</t>
+  </si>
+  <si>
+    <t>religie, filosofie</t>
+  </si>
+  <si>
+    <t>talen, communicatie</t>
+  </si>
+  <si>
+    <t>economie, recht, bestuur</t>
+  </si>
+  <si>
+    <t>defensie</t>
+  </si>
+  <si>
+    <t>fashion, styling</t>
+  </si>
+  <si>
+    <t>informatica, wiskunde</t>
+  </si>
+  <si>
+    <t>bedrijf</t>
+  </si>
+  <si>
+    <t>overig</t>
+  </si>
+  <si>
+    <t>entertainment</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>onderwijs</t>
+  </si>
+  <si>
+    <t>defensie, luchtvaart, zeevaart</t>
+  </si>
+  <si>
+    <t>agrarisch, milieu</t>
+  </si>
+  <si>
+    <t>algemeen</t>
+  </si>
+  <si>
+    <t>architectuur,, design</t>
+  </si>
+  <si>
+    <t>automotive</t>
+  </si>
+  <si>
+    <t>banken</t>
+  </si>
+  <si>
+    <t>betting, gaming</t>
+  </si>
+  <si>
+    <t>bouw</t>
+  </si>
+  <si>
+    <t>dieren, verzorging</t>
+  </si>
+  <si>
+    <t>erotiek</t>
+  </si>
+  <si>
+    <t>facilitaire dienstverlening</t>
+  </si>
+  <si>
+    <t>finance</t>
+  </si>
+  <si>
+    <t>gezondheidszorg, farmacie</t>
+  </si>
+  <si>
+    <t>handel, groothandel, detailhandel</t>
+  </si>
+  <si>
+    <t>horeca</t>
+  </si>
+  <si>
+    <t>ict</t>
+  </si>
+  <si>
+    <t>industrie, productie</t>
+  </si>
+  <si>
+    <t>juridisch</t>
+  </si>
+  <si>
+    <t>kunst, cultuur, entertainment</t>
+  </si>
+  <si>
+    <t>life sciences</t>
+  </si>
+  <si>
+    <t>luchtvaart, zeevaart</t>
+  </si>
+  <si>
+    <t>marketing, communicatie</t>
+  </si>
+  <si>
+    <t>media, journalistiek</t>
+  </si>
+  <si>
+    <t>onderzoek</t>
+  </si>
+  <si>
+    <t>overheid</t>
+  </si>
+  <si>
+    <t>politie, beveiliging</t>
+  </si>
+  <si>
+    <t>reizen, recreatie</t>
+  </si>
+  <si>
+    <t>transport, logistiek</t>
+  </si>
+  <si>
+    <t>werving, selectie</t>
+  </si>
+  <si>
+    <t>vastgoed, makelaardij</t>
+  </si>
+  <si>
+    <t>voeding, beweging</t>
+  </si>
+  <si>
+    <t>zakelijke dienstverlening</t>
   </si>
 </sst>
 </file>
@@ -2861,188 +2999,281 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N820"/>
+  <dimension ref="A1:O820"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="H1">
         <v>1</v>
       </c>
+      <c r="I1" t="s">
+        <v>811</v>
+      </c>
       <c r="N1" s="1" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
+      <c r="I2" t="s">
+        <v>812</v>
+      </c>
       <c r="N2" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>813</v>
+      </c>
+      <c r="O2" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="H3">
         <v>3</v>
       </c>
+      <c r="I3" t="s">
+        <v>823</v>
+      </c>
       <c r="N3" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>814</v>
+      </c>
+      <c r="O3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="H4">
         <v>4</v>
       </c>
+      <c r="I4" t="s">
+        <v>823</v>
+      </c>
       <c r="N4" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>815</v>
+      </c>
+      <c r="O4" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="H5">
         <v>5</v>
       </c>
+      <c r="I5" t="s">
+        <v>813</v>
+      </c>
       <c r="N5" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>816</v>
+      </c>
+      <c r="O5" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="H6">
         <v>6</v>
       </c>
+      <c r="I6" t="s">
+        <v>811</v>
+      </c>
       <c r="N6" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>817</v>
+      </c>
+      <c r="O6" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="H7">
         <v>7</v>
       </c>
+      <c r="I7" t="s">
+        <v>824</v>
+      </c>
       <c r="N7" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>818</v>
+      </c>
+      <c r="O7" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="H8">
         <v>8</v>
       </c>
+      <c r="I8" t="s">
+        <v>811</v>
+      </c>
       <c r="N8" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>819</v>
+      </c>
+      <c r="O8" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="H9">
         <v>9</v>
       </c>
+      <c r="I9" t="s">
+        <v>811</v>
+      </c>
       <c r="N9" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>820</v>
+      </c>
+      <c r="O9" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="H10">
         <v>10</v>
       </c>
+      <c r="I10" t="s">
+        <v>816</v>
+      </c>
       <c r="N10" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>821</v>
+      </c>
+      <c r="O10" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="H11">
         <v>11</v>
       </c>
+      <c r="I11" t="s">
+        <v>816</v>
+      </c>
       <c r="N11" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>822</v>
+      </c>
+      <c r="O11" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="H12">
         <v>12</v>
       </c>
+      <c r="I12" t="s">
+        <v>811</v>
+      </c>
       <c r="N12" t="s">
+        <v>811</v>
+      </c>
+      <c r="O12" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="H13">
         <v>13</v>
       </c>
+      <c r="I13" t="s">
+        <v>825</v>
+      </c>
       <c r="N13" t="s">
+        <v>823</v>
+      </c>
+      <c r="O13" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="H14">
         <v>14</v>
       </c>
+      <c r="I14" t="s">
+        <v>825</v>
+      </c>
       <c r="N14" t="s">
+        <v>812</v>
+      </c>
+      <c r="O14" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="H15">
         <v>15</v>
       </c>
+      <c r="I15" t="s">
+        <v>825</v>
+      </c>
       <c r="N15" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>824</v>
+      </c>
+      <c r="O15" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="H16">
         <v>16</v>
       </c>
+      <c r="I16" t="s">
+        <v>825</v>
+      </c>
       <c r="N16" t="s">
-        <v>813</v>
+        <v>825</v>
+      </c>
+      <c r="O16" t="s">
+        <v>829</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -3052,8 +3283,11 @@
       <c r="H17">
         <v>17</v>
       </c>
+      <c r="I17" t="s">
+        <v>825</v>
+      </c>
       <c r="N17" t="s">
-        <v>812</v>
+        <v>826</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -3063,6 +3297,9 @@
       <c r="H18">
         <v>18</v>
       </c>
+      <c r="I18" t="s">
+        <v>825</v>
+      </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" t="s">
@@ -3071,6 +3308,9 @@
       <c r="H19">
         <v>19</v>
       </c>
+      <c r="I19" t="s">
+        <v>821</v>
+      </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" t="s">
@@ -3079,6 +3319,12 @@
       <c r="H20">
         <v>20</v>
       </c>
+      <c r="I20" t="s">
+        <v>821</v>
+      </c>
+      <c r="N20" t="s">
+        <v>829</v>
+      </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" t="s">
@@ -3087,6 +3333,12 @@
       <c r="H21">
         <v>21</v>
       </c>
+      <c r="I21" t="s">
+        <v>821</v>
+      </c>
+      <c r="N21" t="s">
+        <v>830</v>
+      </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" t="s">
@@ -3095,6 +3347,12 @@
       <c r="H22">
         <v>22</v>
       </c>
+      <c r="I22" t="s">
+        <v>821</v>
+      </c>
+      <c r="N22" t="s">
+        <v>831</v>
+      </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" t="s">
@@ -3103,6 +3361,12 @@
       <c r="H23">
         <v>23</v>
       </c>
+      <c r="I23" t="s">
+        <v>821</v>
+      </c>
+      <c r="N23" t="s">
+        <v>832</v>
+      </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" t="s">
@@ -3111,6 +3375,12 @@
       <c r="H24">
         <v>24</v>
       </c>
+      <c r="I24" t="s">
+        <v>821</v>
+      </c>
+      <c r="N24" t="s">
+        <v>833</v>
+      </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" t="s">
@@ -3119,13 +3389,25 @@
       <c r="H25">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:14">
+      <c r="I25" t="s">
+        <v>815</v>
+      </c>
+      <c r="N25" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="14" customHeight="1">
       <c r="A26" t="s">
         <v>25</v>
       </c>
       <c r="H26">
         <v>26</v>
+      </c>
+      <c r="I26" t="s">
+        <v>812</v>
+      </c>
+      <c r="N26" t="s">
+        <v>835</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -3135,6 +3417,9 @@
       <c r="H27">
         <v>27</v>
       </c>
+      <c r="N27" t="s">
+        <v>805</v>
+      </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" t="s">
@@ -3143,6 +3428,9 @@
       <c r="H28">
         <v>28</v>
       </c>
+      <c r="N28" t="s">
+        <v>836</v>
+      </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" t="s">
@@ -3151,6 +3439,9 @@
       <c r="H29">
         <v>29</v>
       </c>
+      <c r="N29" t="s">
+        <v>837</v>
+      </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" t="s">
@@ -3159,6 +3450,9 @@
       <c r="H30">
         <v>30</v>
       </c>
+      <c r="N30" t="s">
+        <v>838</v>
+      </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" t="s">
@@ -3167,6 +3461,9 @@
       <c r="H31">
         <v>31</v>
       </c>
+      <c r="N31" t="s">
+        <v>806</v>
+      </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" t="s">
@@ -3175,176 +3472,242 @@
       <c r="H32">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="N32" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" t="s">
         <v>32</v>
       </c>
       <c r="H33">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="N33" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" t="s">
         <v>33</v>
       </c>
       <c r="H34">
         <v>34</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="N34" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" t="s">
         <v>34</v>
       </c>
       <c r="H35">
         <v>35</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="N35" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" t="s">
         <v>35</v>
       </c>
       <c r="H36">
         <v>36</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="N36" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" t="s">
         <v>36</v>
       </c>
       <c r="H37">
         <v>37</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="N37" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" t="s">
         <v>37</v>
       </c>
       <c r="H38">
         <v>38</v>
       </c>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="N38" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" t="s">
         <v>38</v>
       </c>
       <c r="H39">
         <v>39</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="N39" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" t="s">
         <v>39</v>
       </c>
       <c r="H40">
         <v>40</v>
       </c>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="N40" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" t="s">
         <v>40</v>
       </c>
       <c r="H41">
         <v>41</v>
       </c>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="N41" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" t="s">
         <v>41</v>
       </c>
       <c r="H42">
         <v>42</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="N42" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" t="s">
         <v>42</v>
       </c>
       <c r="H43">
         <v>43</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="N43" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" t="s">
         <v>43</v>
       </c>
       <c r="H44">
         <v>44</v>
       </c>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="N44" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" t="s">
         <v>44</v>
       </c>
       <c r="H45">
         <v>45</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="N45" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46" t="s">
         <v>45</v>
       </c>
       <c r="H46">
         <v>46</v>
       </c>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="N46" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47" t="s">
         <v>46</v>
       </c>
       <c r="H47">
         <v>47</v>
       </c>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="N47" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48" t="s">
         <v>47</v>
       </c>
       <c r="H48">
         <v>48</v>
       </c>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="N48" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49" t="s">
         <v>48</v>
       </c>
       <c r="H49">
         <v>49</v>
       </c>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="N49" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50" t="s">
         <v>49</v>
       </c>
       <c r="H50">
         <v>50</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="N50" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51" t="s">
         <v>50</v>
       </c>
       <c r="H51">
         <v>51</v>
       </c>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="N51" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52" t="s">
         <v>51</v>
       </c>
       <c r="H52">
         <v>52</v>
       </c>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="N52" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53" t="s">
         <v>52</v>
       </c>
       <c r="H53">
         <v>53</v>
       </c>
-    </row>
-    <row r="54" spans="1:8">
+      <c r="N53" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -3352,7 +3715,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:14">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -3360,7 +3723,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:14">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -3368,7 +3731,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:14">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -3376,7 +3739,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:14">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -3384,7 +3747,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:14">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -3392,7 +3755,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:14">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -3400,7 +3763,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:14">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -3408,7 +3771,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:14">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -3416,7 +3779,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:14">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -3424,7 +3787,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:14">
       <c r="A64" t="s">
         <v>63</v>
       </c>
